--- a/data/trans_orig/P44AS4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44AS4-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D01BB4B7-BCCD-4F33-B8CF-6D1AFA4212DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34167B0E-E89C-4C65-A296-9C5C90A620E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E459A824-FAC2-4ADE-860C-7BD7F866F3C1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{433354F7-2F9C-44FD-8DC7-11A3B1D04FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -527,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9D38C4-2D56-40C0-B6AF-2ED83EEE67AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BFA15D-3332-4AB0-B9B4-F5C2E2A941F4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66B9649-1E3C-4ABF-9600-AFB59785F1B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D851F4-8DA6-425F-9ED1-ACF6FCA5310F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2499,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E80CED-7CD2-4243-A552-9EA75CEC4D66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4284294A-095E-4696-AE7E-F31C8C6ADF4C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P44AS4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44AS4-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34167B0E-E89C-4C65-A296-9C5C90A620E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D48D1CCE-66B1-4C1F-AE87-BD9D7A9EC573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{433354F7-2F9C-44FD-8DC7-11A3B1D04FCA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DDE9356-4B80-4AF2-9766-81079B64DF28}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -112,7 +112,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 4 en 2023 (Tasa respuesta: 0,01%)</t>
@@ -527,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BFA15D-3332-4AB0-B9B4-F5C2E2A941F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05278649-19DC-4170-A79D-627DE8297056}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D851F4-8DA6-425F-9ED1-ACF6FCA5310F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4D2F5D-4DB6-4FD1-9D92-6D8D94802C2A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2499,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4284294A-095E-4696-AE7E-F31C8C6ADF4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB71ACD3-D1E4-4C7C-A8F6-19E684C24E7D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
